--- a/medicine/Enfance/Abandon_d'enfant_sous_l'Ancien_Régime/Abandon_d'enfant_sous_l'Ancien_Régime.xlsx
+++ b/medicine/Enfance/Abandon_d'enfant_sous_l'Ancien_Régime/Abandon_d'enfant_sous_l'Ancien_Régime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abandon_d%27enfant_sous_l%27Ancien_R%C3%A9gime</t>
+          <t>Abandon_d'enfant_sous_l'Ancien_Régime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abandon d'enfant est un phénomène très ancien qui connut un développement important au XVIIIe siècle. En 1787, Necker estimait à 40 000 le nombre d'enfants trouvés qui survivaient parmi les vingt-six millions d'habitants de la France[réf. nécessaire].
 On distinguait les « enfants trouvés », exposés dans les lieux publics, recueillis et transportés dans une institution, des « enfants abandonnés » que leurs parents confient à un proche, à une autorité locale, à une institution.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abandon_d%27enfant_sous_l%27Ancien_R%C3%A9gime</t>
+          <t>Abandon_d'enfant_sous_l'Ancien_Régime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>L'envergure de l'abandon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît que les enfants pris en charge par les organismes d'assistance. Nombreux sont les enfants qui décèdent entre le moment de leur exposition et leur arrivée dans les hôpitaux. Ainsi les cimetières de la région de Vitry-le-François étaient l'ultime étape des enfants lorrains acheminés vers Paris. On peut donc multiplier les données ci-dessous par quatre ou cinq, voire plus, pour apprécier l'ampleur des abandons d'enfants. De 1640 à 1789, l'Hôpital des Enfants-Trouvés de Paris recueille 390 000 enfants, le flux passant de 30 enfants en 1640 à 5500 en 1780 (pour une population de 850 000 habitants). À Lyon on recense 600 enfants abandonnés en 1690, mais 1500 en 1790 (pour près de 130 000 habitants). À Marseille, on passe de 41 enfants en 1621 à 511 en 1788[réf. nécessaire].
 L'abandon a lieu très tôt dans la vie de l'enfant. À Lyon en 1716-1717, 40 % des enfants abandonnés ont moins de deux jours, et 60 % moins d'un mois. À Paris en 1778, 60 % ont moins d'un mois. À Nancy, en 1774, 40 % ont moins d'une semaine, plus des trois quarts en 1788. Cette précocité de l'abandon trahit la réapparition sociale de la mère après un accouchement, souvent clandestin. Elle ne peut alors « s'encombrer » d'un enfant[réf. nécessaire].
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abandon_d%27enfant_sous_l%27Ancien_R%C3%A9gime</t>
+          <t>Abandon_d'enfant_sous_l'Ancien_Régime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Les raisons de l'abandon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les raisons de l'abandon sont multiples. Ces enfants peuvent être issus de mariage considéré comme illégitime, c’est-à-dire non approuvé par le père d'un ou des deux mariés. L'ordonnance de 1556 impose le consentement paternel pour les filles jusqu'à 25 ans et 30 ans pour les garçons. Cette pratique se rencontre surtout dans la haute société.
 Les enfants peuvent aussi avoir été procréés avant le mariage. Cela devient catastrophique en cas de refus du consentement paternel ou de la disparition du futur mari. À Meulan, on estime à 8 % les procréations « anticipées » entre 1660 et 1739, et à 12 % après 1740. À Sotteville-lès-Rouen il y en a 36 % entre 1760 et 1790[réf. nécessaire].
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abandon_d%27enfant_sous_l%27Ancien_R%C3%A9gime</t>
+          <t>Abandon_d'enfant_sous_l'Ancien_Régime</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Accueil des enfants abandonnés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'assistance aux enfants abandonnés est une obligation seigneuriale découlant du droit d'épave qui fait du seigneur l'héritier des "bâtards" nés, possédant des biens dans sa seigneurie et décédés sans enfants ni testament. En regard des lois et des usages de l'époque les enfants abandonnés ou trouvés sont des "bâtards". Beaucoup de seigneurs essaient d'échapper au financement de  l'assistance et tentent de s'en décharger sur les établissements hospitaliers ou sur les communautés d'habitants comme le prescrit l'ordonnance de Moulins de 1556. Cela occasionne de nombreux procès. En 1552, un arrêt du parlement de Paris oblige les seigneurs hauts-justiciers à pourvoir à l'entretien "des pauvres enfants trouvés".
 Certaines communautés ont organisé l'assistance. Ainsi la Bretagne où les enfants  sont financés par la paroisse où ils ont été trouvés. En Provence, les communautés payent un abonnement de 120 livres environ par enfant accueilli dans les hôpitaux locaux. Mais pour alléger la charge fiscale on se débarrasse des bébés dans les paroisses limitrophes, et on fait des recherches de paternité souvent par dénonciation.
-L'Église grâce à des legs ou des dons prend aussi en charge les enfants abandonnés. En 1579 un arrêt du parlement de Paris fait obligation aux curés de secourir les enfants abandonnés de leur paroisse (à défaut des parents ou du seigneur). À la fin du XIIe siècle l'ordre hospitalier du Saint-Esprit fondé par Guy de Montpellier, est créé pour soulager les pauvres infirmes, les pèlerins et les enfants abandonnés. À la fin du XIVe siècle il possédait près de cent maisons en France. En 1672 il fusionne avec l'ordre de Saint-Lazare[1].
+L'Église grâce à des legs ou des dons prend aussi en charge les enfants abandonnés. En 1579 un arrêt du parlement de Paris fait obligation aux curés de secourir les enfants abandonnés de leur paroisse (à défaut des parents ou du seigneur). À la fin du XIIe siècle l'ordre hospitalier du Saint-Esprit fondé par Guy de Montpellier, est créé pour soulager les pauvres infirmes, les pèlerins et les enfants abandonnés. À la fin du XIVe siècle il possédait près de cent maisons en France. En 1672 il fusionne avec l'ordre de Saint-Lazare.
 </t>
         </is>
       </c>
